--- a/fuentes/contenidos/grado07/guion06/Escaleta_CN_07_06_CO.xlsx
+++ b/fuentes/contenidos/grado07/guion06/Escaleta_CN_07_06_CO.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\German\Documents\Aulaplaneta All\Trabajos de editor\EDITOR\ESCALETAS\Escaletas  grupo  2\CN_07_06_CO La Tierra y sus movimientos\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9210" firstSheet="1" activeTab="1"/>
   </bookViews>
@@ -16,14 +11,14 @@
     <sheet name="CN_07_06_CO" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">CN_07_06_CO!$A$2:$U$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">CN_07_06_CO!$A$2:$U$53</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525" iterateCount="2" iterateDelta="10"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="257">
   <si>
     <t>Asignatura</t>
   </si>
@@ -376,418 +371,424 @@
     <t>Eventos que originaron y conformaron nuestro planeta</t>
   </si>
   <si>
-    <t>Actividad en la que se pide a los estudiantes que elaboren una historieta con descripciones e imágenes sobre los eventos que originaron y conformaron nuestro planeta</t>
-  </si>
-  <si>
     <t>RM</t>
   </si>
   <si>
     <t>Recursos M</t>
   </si>
   <si>
+    <t>RM_01_01_CO</t>
+  </si>
+  <si>
+    <t>Consolidación</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: La Tierra y sus movimientos</t>
+  </si>
+  <si>
+    <t>Recurso M101A-01</t>
+  </si>
+  <si>
+    <t>Las capas esféricas de la tierra</t>
+  </si>
+  <si>
+    <t>La hidrósfera</t>
+  </si>
+  <si>
+    <t>La corriente de Humboldt</t>
+  </si>
+  <si>
+    <t>Recurso M101AP-01</t>
+  </si>
+  <si>
+    <t>La atmósfera</t>
+  </si>
+  <si>
+    <t>Recurso M2B-01</t>
+  </si>
+  <si>
+    <t>La biósfera</t>
+  </si>
+  <si>
+    <t>La geósfera</t>
+  </si>
+  <si>
+    <t>Las capas esféricas de la Tierra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La geósfera y sus capas        </t>
+  </si>
+  <si>
+    <t>El núcleo</t>
+  </si>
+  <si>
+    <t>El núcleo y el campo magnético terrestre</t>
+  </si>
+  <si>
+    <t>Recurso M102AB-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El manto </t>
+  </si>
+  <si>
+    <t xml:space="preserve">La corteza </t>
+  </si>
+  <si>
+    <t>Recurso M9B-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los movimientos de las placas tectónicas </t>
+  </si>
+  <si>
+    <t>Los movimientos lentos de las placas tectónicas</t>
+  </si>
+  <si>
+    <t>La formación de las cordilleras</t>
+  </si>
+  <si>
+    <t>Recurso M5B-01</t>
+  </si>
+  <si>
+    <t>Los movimientos rápidos de las placas tectónicas</t>
+  </si>
+  <si>
+    <t>Temblores y terremotos</t>
+  </si>
+  <si>
+    <t>Los movimientos telúricos y las placas tectónicas</t>
+  </si>
+  <si>
+    <t>Los Tsunamis</t>
+  </si>
+  <si>
+    <t>Las erupciones volcánicas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refuerza tu aprendizaje: Los movimientos de las placas tectónicas </t>
+  </si>
+  <si>
+    <t>La deriva continental</t>
+  </si>
+  <si>
+    <t>Los fósiles de Glossopteris y la deriva continental</t>
+  </si>
+  <si>
+    <t>Los seres vivos y la deriva continental</t>
+  </si>
+  <si>
+    <t>Rodinia</t>
+  </si>
+  <si>
+    <t>Laurentia y Gondwana</t>
+  </si>
+  <si>
+    <t>Pangea</t>
+  </si>
+  <si>
+    <t>Gondwana y Laurasia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los cinco continentes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consolidación </t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: La deriva continental</t>
+  </si>
+  <si>
+    <t>Recurso M14A-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La rotación </t>
+  </si>
+  <si>
+    <t>El día y la noche</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La traslación </t>
+  </si>
+  <si>
+    <t>Las estaciones</t>
+  </si>
+  <si>
+    <t>Los solsticios y los equinoccios</t>
+  </si>
+  <si>
+    <t>Movimientos de precesión y nutación</t>
+  </si>
+  <si>
+    <t>Actividad que consolida conocimientos sobre Los movimientos cósmicos de la Tierra</t>
+  </si>
+  <si>
+    <t>Competencias</t>
+  </si>
+  <si>
+    <t>Fin de unidad</t>
+  </si>
+  <si>
+    <t>Recurso M4A-01</t>
+  </si>
+  <si>
+    <t>Banco de actividades: La Tierra y sus movimientos</t>
+  </si>
+  <si>
+    <t>Motor que incluye preguntas de respuesta abierta del tema La Tierra y sus movimientos</t>
+  </si>
+  <si>
+    <t>Recurso F7B-01</t>
+  </si>
+  <si>
+    <t>La corteza</t>
+  </si>
+  <si>
+    <t>Movimientos espaciales de la Tierra</t>
+  </si>
+  <si>
+    <t>Recurso F7-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Autoevaluación </t>
+  </si>
+  <si>
+    <t>Recurso F8-01</t>
+  </si>
+  <si>
+    <t>Recurso F8-02</t>
+  </si>
+  <si>
+    <t>Recurso M101A-02</t>
+  </si>
+  <si>
+    <t>Recurso M101A-03</t>
+  </si>
+  <si>
+    <t>Recurso M101A-04</t>
+  </si>
+  <si>
+    <t>Recurso M101A-05</t>
+  </si>
+  <si>
+    <t>Recurso M101A-06</t>
+  </si>
+  <si>
+    <t>¿Cómo interactúan las placas tectónicas?</t>
+  </si>
+  <si>
+    <t>Los movimientos espaciales de la Tierra y sus efectos</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: Los movimientos espaciales de la Tierra</t>
+  </si>
+  <si>
+    <t>Evalúa tus conocimientos sobre el tema La Tierra y sus movimientos</t>
+  </si>
+  <si>
+    <t>Recurso F13B-01</t>
+  </si>
+  <si>
+    <t>Recurso F7-02</t>
+  </si>
+  <si>
+    <t>Recurso M8A-01</t>
+  </si>
+  <si>
+    <t>NUEVO</t>
+  </si>
+  <si>
+    <t>F7B</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>F8</t>
+  </si>
+  <si>
+    <t>F7</t>
+  </si>
+  <si>
+    <t>F13B</t>
+  </si>
+  <si>
+    <t>Sección 1</t>
+  </si>
+  <si>
+    <t>Sección 2</t>
+  </si>
+  <si>
+    <t>Sección 3</t>
+  </si>
+  <si>
+    <t>Tipología</t>
+  </si>
+  <si>
+    <t>Tipo Media</t>
+  </si>
+  <si>
+    <t>Tipo de Motor</t>
+  </si>
+  <si>
+    <t>Aparece en Cuaderno</t>
+  </si>
+  <si>
+    <t>Fuente Curso</t>
+  </si>
+  <si>
+    <t>Fuente Materia</t>
+  </si>
+  <si>
+    <t>Fuente Guion</t>
+  </si>
+  <si>
+    <t>Título de Recurso</t>
+  </si>
+  <si>
+    <t>INTERACTIVO</t>
+  </si>
+  <si>
+    <t>ACTIVIDAD</t>
+  </si>
+  <si>
+    <t>MAPA CONCEPTUAL</t>
+  </si>
+  <si>
+    <t>RF_01_01_CO</t>
+  </si>
+  <si>
+    <t>Recursos F</t>
+  </si>
+  <si>
+    <t>Actividad que guía el trabajo colaborativo sobre las corrientes convección</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: Las capas esféricas de la Tierra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La geosfera y sus capas        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refuerza tu aprendizaje: La geosfera y sus capas        </t>
+  </si>
+  <si>
+    <t>Los movimientos espaciales de la Tierra</t>
+  </si>
+  <si>
+    <t>Actividad para identificar los movimientos espaciales de la Tierra</t>
+  </si>
+  <si>
+    <t>DIAP F1</t>
+  </si>
+  <si>
+    <t>Recurso M12D-01</t>
+  </si>
+  <si>
+    <t>Recurso M5D-01</t>
+  </si>
+  <si>
+    <t>Recursos M aleatorios y diaporama F1</t>
+  </si>
+  <si>
+    <t>Diaporama F1-01</t>
+  </si>
+  <si>
+    <t>RM_01_02_CO</t>
+  </si>
+  <si>
+    <t>Recurso M2A-01</t>
+  </si>
+  <si>
     <t>Recurso M102AB-01</t>
   </si>
   <si>
-    <t>RM_01_01_CO</t>
-  </si>
-  <si>
-    <t>Consolidación</t>
-  </si>
-  <si>
-    <t>Refuerza tu aprendizaje: La Tierra y sus movimientos</t>
-  </si>
-  <si>
-    <t>Actividad que consolida conocimientos sobre La Tierra y sus movimientos</t>
-  </si>
-  <si>
-    <t>Recurso M101A-01</t>
-  </si>
-  <si>
-    <t>Las capas esféricas de la tierra</t>
-  </si>
-  <si>
-    <t>La hidrósfera</t>
-  </si>
-  <si>
-    <t>La corriente de Humboldt</t>
-  </si>
-  <si>
-    <t>Recurso M101AP-01</t>
-  </si>
-  <si>
-    <t>La atmósfera</t>
-  </si>
-  <si>
-    <t>Ejercicio en el que se rellenan espacios vacíos en un texto sobre la atmósfera</t>
-  </si>
-  <si>
-    <t>Recurso M2B-01</t>
-  </si>
-  <si>
-    <t>La biósfera</t>
-  </si>
-  <si>
-    <t>La geósfera</t>
-  </si>
-  <si>
-    <t>Las capas esféricas de la Tierra</t>
-  </si>
-  <si>
-    <t>Interactivo en el que se muestran y describen las capas esféricas de la Tierra, sus orígenes, formación  y movimientos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La geósfera y sus capas        </t>
-  </si>
-  <si>
-    <t>El núcleo</t>
-  </si>
-  <si>
-    <t>El núcleo y el campo magnético terrestre</t>
-  </si>
-  <si>
-    <t>Investigación sobre el campo magnético terrestre, su origen y función</t>
-  </si>
-  <si>
-    <t>Recurso M102AB-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El manto </t>
-  </si>
-  <si>
-    <t xml:space="preserve">La corteza </t>
-  </si>
-  <si>
-    <t>Interactivo que describe y explica la composición y el funcionamiento de las capas que componen la geosfera</t>
-  </si>
-  <si>
-    <t>Recurso M9B-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Los movimientos de las placas tectónicas </t>
-  </si>
-  <si>
-    <t>Los movimientos lentos de las placas tectónicas</t>
-  </si>
-  <si>
-    <t>La formación de las cordilleras</t>
-  </si>
-  <si>
-    <t>Recurso M5B-01</t>
-  </si>
-  <si>
-    <t>Los movimientos rápidos de las placas tectónicas</t>
-  </si>
-  <si>
-    <t>Temblores y terremotos</t>
-  </si>
-  <si>
-    <t>Los movimientos telúricos y las placas tectónicas</t>
-  </si>
-  <si>
-    <t>Test basado en un video sobre los movimientos telúricos y la actividad de las placas tectónicas</t>
-  </si>
-  <si>
-    <t>Los Tsunamis</t>
-  </si>
-  <si>
-    <t>Los maremotos y el accidente nuclear de Fukushima I</t>
-  </si>
-  <si>
-    <t>Investigación y preguntas sobre el accidente nuclear de Fukushima I</t>
-  </si>
-  <si>
-    <t>Las erupciones volcánicas</t>
-  </si>
-  <si>
-    <t>¿Por qué los volcanes están ubicados en lugares específicos del planeta?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Refuerza tu aprendizaje: Los movimientos de las placas tectónicas </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Actividad que consolida conocimientos sobre Los movimientos de las placas tectónicas </t>
-  </si>
-  <si>
-    <t>Recurso M101AP-03</t>
-  </si>
-  <si>
-    <t>La deriva continental</t>
-  </si>
-  <si>
-    <t>Los fósiles de Glossopteris y la deriva continental</t>
-  </si>
-  <si>
-    <t>Actividad en la que se establece por qué hay fósiles de Glossopteris en lugares tan distantes unos de otros como América del Sur, Africa, India, Antartica y Australia</t>
-  </si>
-  <si>
-    <t>Los seres vivos y la deriva continental</t>
-  </si>
-  <si>
-    <t>Rodinia</t>
-  </si>
-  <si>
-    <t>Laurentia y Gondwana</t>
-  </si>
-  <si>
-    <t>Pangea</t>
-  </si>
-  <si>
-    <t>Gondwana y Laurasia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Los cinco continentes </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interactivo en el que se muestran, describen y explican los eventos más importantes de la deriva continental     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Consolidación </t>
-  </si>
-  <si>
-    <t>Refuerza tu aprendizaje: La deriva continental</t>
-  </si>
-  <si>
-    <t>Actividad que consolida conocimientos sobre La deriva continental</t>
-  </si>
-  <si>
-    <t>Juego del ahorcado en el que se evalúan conocimientos sobre la deriva continental</t>
-  </si>
-  <si>
-    <t>Recurso M14A-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La rotación </t>
-  </si>
-  <si>
-    <t>El día y la noche</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La traslación </t>
-  </si>
-  <si>
-    <t>Las estaciones</t>
-  </si>
-  <si>
-    <t>Los solsticios y los equinoccios</t>
-  </si>
-  <si>
-    <t>Movimientos de precesión y nutación</t>
-  </si>
-  <si>
-    <t>Actividad que consolida conocimientos sobre Los movimientos cósmicos de la Tierra</t>
-  </si>
-  <si>
-    <t>Competencias</t>
-  </si>
-  <si>
-    <t>Las ciudades de Colombia y los movimientos sísmicos</t>
-  </si>
-  <si>
-    <t>Fin de unidad</t>
-  </si>
-  <si>
-    <t>Mapa conceptual sobre sobre la Tierra y sus movimientos</t>
-  </si>
-  <si>
-    <t>Recurso M4A-01</t>
-  </si>
-  <si>
-    <t>Banco de actividades: La Tierra y sus movimientos</t>
-  </si>
-  <si>
-    <t>Motor que incluye preguntas de respuesta abierta del tema La Tierra y sus movimientos</t>
-  </si>
-  <si>
-    <t>Recurso F7B-01</t>
-  </si>
-  <si>
-    <t>La corteza</t>
-  </si>
-  <si>
-    <t>Movimientos espaciales de la Tierra</t>
-  </si>
-  <si>
-    <t>Recurso F7-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Autoevaluación </t>
-  </si>
-  <si>
-    <t>Recurso F4-01</t>
-  </si>
-  <si>
-    <t>Recurso F8-01</t>
-  </si>
-  <si>
-    <t>Recurso F8-02</t>
-  </si>
-  <si>
-    <t>Recurso M101A-02</t>
-  </si>
-  <si>
-    <t>Recurso M101A-03</t>
-  </si>
-  <si>
-    <t>Recurso M101A-04</t>
-  </si>
-  <si>
-    <t>Recurso M101A-05</t>
-  </si>
-  <si>
-    <t>Recurso M101A-06</t>
-  </si>
-  <si>
-    <t>Recurso M102AB-04</t>
-  </si>
-  <si>
-    <t>Recurso M102AB-05</t>
-  </si>
-  <si>
-    <t>Interactivo en el que se muestran aspectos de los dos fenómenos principales causantes de los movimientos de nuestro planeta</t>
-  </si>
-  <si>
-    <t>Las corrientes de convección  y la gravedad</t>
-  </si>
-  <si>
-    <t>Recurso M5A-01</t>
-  </si>
-  <si>
-    <t>Preguntas en forma de test con imagen sobre la influencia benéfica de la corriente marina de Humboldt</t>
-  </si>
-  <si>
-    <t>¿Cómo interactúan las placas tectónicas?</t>
-  </si>
-  <si>
-    <t>Interactivo en el que se muestran cómo interactúan las placas tectónicas y los efectos que esto produce</t>
-  </si>
-  <si>
-    <t>Los movimientos espaciales de la Tierra y sus efectos</t>
-  </si>
-  <si>
-    <t>Interactivo en el que se explican los movimientos espaciales de la Tierra y sus efectos</t>
-  </si>
-  <si>
-    <t>Refuerza tu aprendizaje: Los movimientos espaciales de la Tierra</t>
-  </si>
-  <si>
-    <t>Evalúa tus conocimientos sobre el tema La Tierra y sus movimientos</t>
-  </si>
-  <si>
-    <t>Recurso F13B-01</t>
-  </si>
-  <si>
-    <t>Recurso F7-02</t>
-  </si>
-  <si>
-    <t>Recurso M8A-01</t>
-  </si>
-  <si>
-    <t>NUEVO</t>
-  </si>
-  <si>
-    <t>F7B</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>F8</t>
-  </si>
-  <si>
-    <t>F7</t>
-  </si>
-  <si>
-    <t>F4</t>
-  </si>
-  <si>
-    <t>F13B</t>
-  </si>
-  <si>
-    <t>Sección 1</t>
-  </si>
-  <si>
-    <t>Sección 2</t>
-  </si>
-  <si>
-    <t>Sección 3</t>
-  </si>
-  <si>
-    <t>Tipología</t>
-  </si>
-  <si>
-    <t>Tipo Media</t>
-  </si>
-  <si>
-    <t>Tipo de Motor</t>
-  </si>
-  <si>
-    <t>Aparece en Cuaderno</t>
-  </si>
-  <si>
-    <t>Fuente Curso</t>
-  </si>
-  <si>
-    <t>Fuente Materia</t>
-  </si>
-  <si>
-    <t>Fuente Guion</t>
-  </si>
-  <si>
-    <t>Título de Recurso</t>
-  </si>
-  <si>
-    <t>INTERACTIVO</t>
-  </si>
-  <si>
-    <t>ACTIVIDAD</t>
-  </si>
-  <si>
-    <t>MAPA CONCEPTUAL</t>
-  </si>
-  <si>
-    <t>RF_01_01_CO</t>
-  </si>
-  <si>
-    <t>Recursos F</t>
-  </si>
-  <si>
-    <t>Las capas de la geósfera</t>
-  </si>
-  <si>
-    <t>Colaborativo</t>
-  </si>
-  <si>
-    <t>Actividad que guía el trabajo colaborativo sobre las corrientes convección</t>
-  </si>
-  <si>
-    <t>Actividad en la que se identifican algunas ciudades de Colombia con riesgo de sufrir movimientos sísmicos</t>
-  </si>
-  <si>
-    <t>Refuerza tu aprendizaje: Las capas esféricas de la Tierra</t>
-  </si>
-  <si>
-    <t>Actividad que consolida conocimientos sobre Las capas esféricas de la Tierra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La geosfera y sus capas        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Actividad en la que se posicionan etiquetas, de manera ordenada, basadas en una imagen de las capas que componen la geosfera </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Refuerza tu aprendizaje: La geosfera y sus capas        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Actividad que consolida conocimientos sobre La geosfera y sus capas        </t>
-  </si>
-  <si>
-    <t>Actividad en la que se utilizan mapas para contestar a la pregunta: ¿por qué los volcanes están ubicados en lugares específicos del planeta?</t>
-  </si>
-  <si>
-    <t>Competencias; Las corrientes de convección</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La deriva continental y sus eventos más importantes </t>
+    <t>Recurso M102AB-03</t>
+  </si>
+  <si>
+    <t>Interactivo para comprender los fenómeonos que causan los movimientos de nuestro planeta</t>
+  </si>
+  <si>
+    <t>Actividad para ordenar cronológicamente los eventos que originaron y conformaron nuestro planeta</t>
+  </si>
+  <si>
+    <t>Actividad para reforzar conocimientos sobre La Tierra y sus movimientos</t>
+  </si>
+  <si>
+    <t>Interactivo que permite estudiar las caracteísticas de las capas esféricas de la Tierra</t>
+  </si>
+  <si>
+    <t>Actividad para reconocer la influencia benéfica de la corriente marina de Humboldt</t>
+  </si>
+  <si>
+    <t>Actividad para trabajar los conceptos principales sobre la atmósfera</t>
+  </si>
+  <si>
+    <t>Actividad para afianzar conocimientos sobre Las capas esféricas de la Tierra</t>
+  </si>
+  <si>
+    <t>Interactivo que describe la composición y el funcionamiento de las capas de la geosfera</t>
+  </si>
+  <si>
+    <t>Actividad para identificar las características del campo magnético terrestre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actividad para identificar las capas que componen la geosfera </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actividad que permite reforzar conocimientos sobre La geosfera y sus capas        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interactivo que muestra la interacción de las placas tectónicas y  sus efectos </t>
+  </si>
+  <si>
+    <t>Actividad para reconocer los movimientos telúricos y la actividad de las placas tectónicas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interactivo que describe los eventos más importantes de la deriva continental     </t>
+  </si>
+  <si>
+    <t>Actividad para repasar conceptos sobre la deriva continental</t>
+  </si>
+  <si>
+    <t>Actividad para relacionar la ubicación de fósiles con la deriva continental</t>
+  </si>
+  <si>
+    <t>Actividad para afianzar conocimientos sobre La deriva continental</t>
+  </si>
+  <si>
+    <t>Interactivo que explica los movimientos espaciales de la Tierra y sus efectos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actividad para reconocer conceptos sobre Los movimientos de las placas tectónicas </t>
+  </si>
+  <si>
+    <t>Actividad que propone estudiar la relación entre los volcanes y las fallas geológicas</t>
+  </si>
+  <si>
+    <t>Mapa conceptual sobre sobre La Tierra y sus movimientos</t>
+  </si>
+  <si>
+    <t>Las corrientes de convección y la gravedad</t>
+  </si>
+  <si>
+    <t>Las capas de la geosfera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La deriva continental y sus eventos </t>
+  </si>
+  <si>
+    <t>Competencias: comprensión de la ubicación de los volcanes en lugares específicos del planeta</t>
+  </si>
+  <si>
+    <t>Competencias: estudio de los maremotos y el accidente nuclear de Fukushima I</t>
+  </si>
+  <si>
+    <t>Competencias: identificación de las ciudades de Colombia con riesgo sísmico</t>
+  </si>
+  <si>
+    <t>Actividad que propone desarrollar el procedimiento para conocer el accidente nuclear de Fukushima I</t>
+  </si>
+  <si>
+    <t>Actividad que permite identificar las ciudades  Colombia con riesgo sísmico</t>
   </si>
 </sst>
 </file>
@@ -853,8 +854,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0070C0"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -995,7 +997,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1151,44 +1153,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1252,7 +1225,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1287,7 +1260,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3457,10 +3430,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U115"/>
+  <dimension ref="A1:U118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D46" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H50" sqref="H50"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J59" sqref="J59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3474,8 +3447,8 @@
     <col min="7" max="7" width="50.7109375" customWidth="1"/>
     <col min="8" max="8" width="12" style="30" customWidth="1"/>
     <col min="9" max="9" width="12.140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="30.28515625" customWidth="1"/>
-    <col min="11" max="11" width="16.85546875" customWidth="1"/>
+    <col min="10" max="10" width="107.140625" customWidth="1"/>
+    <col min="11" max="11" width="19.85546875" customWidth="1"/>
     <col min="12" max="12" width="16.42578125" customWidth="1"/>
     <col min="13" max="13" width="11.5703125" style="74" customWidth="1"/>
     <col min="14" max="14" width="11.28515625" style="74" customWidth="1"/>
@@ -3491,94 +3464,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="99" t="s">
+      <c r="B1" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="99" t="s">
+      <c r="C1" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="99" t="s">
-        <v>226</v>
-      </c>
-      <c r="E1" s="99" t="s">
-        <v>227</v>
-      </c>
-      <c r="F1" s="99" t="s">
-        <v>228</v>
-      </c>
-      <c r="G1" s="99" t="s">
+      <c r="D1" s="84" t="s">
+        <v>197</v>
+      </c>
+      <c r="E1" s="84" t="s">
+        <v>198</v>
+      </c>
+      <c r="F1" s="84" t="s">
+        <v>199</v>
+      </c>
+      <c r="G1" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="99" t="s">
+      <c r="H1" s="84" t="s">
         <v>105</v>
       </c>
-      <c r="I1" s="99" t="s">
+      <c r="I1" s="84" t="s">
         <v>103</v>
       </c>
-      <c r="J1" s="99" t="s">
+      <c r="J1" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="99" t="s">
-        <v>229</v>
-      </c>
-      <c r="L1" s="99" t="s">
-        <v>230</v>
-      </c>
-      <c r="M1" s="99" t="s">
-        <v>231</v>
-      </c>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99" t="s">
+      <c r="K1" s="84" t="s">
+        <v>200</v>
+      </c>
+      <c r="L1" s="84" t="s">
+        <v>201</v>
+      </c>
+      <c r="M1" s="84" t="s">
+        <v>202</v>
+      </c>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84" t="s">
         <v>104</v>
       </c>
-      <c r="P1" s="99" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q1" s="99" t="s">
-        <v>233</v>
-      </c>
-      <c r="R1" s="99" t="s">
-        <v>234</v>
-      </c>
-      <c r="S1" s="99" t="s">
-        <v>235</v>
-      </c>
-      <c r="T1" s="99" t="s">
-        <v>236</v>
-      </c>
-      <c r="U1" s="99" t="s">
+      <c r="P1" s="84" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q1" s="84" t="s">
+        <v>204</v>
+      </c>
+      <c r="R1" s="84" t="s">
+        <v>205</v>
+      </c>
+      <c r="S1" s="84" t="s">
+        <v>206</v>
+      </c>
+      <c r="T1" s="84" t="s">
+        <v>207</v>
+      </c>
+      <c r="U1" s="84" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="99"/>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
+      <c r="A2" s="84"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="84"/>
       <c r="M2" s="75" t="s">
         <v>87</v>
       </c>
       <c r="N2" s="75" t="s">
         <v>86</v>
       </c>
-      <c r="O2" s="99"/>
-      <c r="P2" s="99"/>
-      <c r="Q2" s="99"/>
-      <c r="R2" s="99"/>
-      <c r="S2" s="99"/>
-      <c r="T2" s="99"/>
-      <c r="U2" s="99"/>
+      <c r="O2" s="84"/>
+      <c r="P2" s="84"/>
+      <c r="Q2" s="84"/>
+      <c r="R2" s="84"/>
+      <c r="S2" s="84"/>
+      <c r="T2" s="84"/>
+      <c r="U2" s="84"/>
     </row>
     <row r="3" spans="1:21" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
@@ -3628,7 +3601,7 @@
         <v>114</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="G4" s="23"/>
       <c r="H4" s="60"/>
@@ -3664,7 +3637,7 @@
       </c>
       <c r="F5" s="49"/>
       <c r="G5" s="50" t="s">
-        <v>207</v>
+        <v>249</v>
       </c>
       <c r="H5" s="61">
         <v>1</v>
@@ -3673,17 +3646,17 @@
         <v>18</v>
       </c>
       <c r="J5" s="52" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="K5" s="71" t="s">
-        <v>219</v>
+        <v>191</v>
       </c>
       <c r="L5" s="42" t="s">
-        <v>237</v>
+        <v>208</v>
       </c>
       <c r="M5" s="76"/>
       <c r="N5" s="76" t="s">
-        <v>220</v>
+        <v>192</v>
       </c>
       <c r="O5" s="49"/>
       <c r="P5" s="51" t="s">
@@ -3693,16 +3666,16 @@
         <v>6</v>
       </c>
       <c r="R5" s="54" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="S5" s="53" t="s">
-        <v>241</v>
+        <v>212</v>
       </c>
       <c r="T5" s="55" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="U5" s="53" t="s">
-        <v>240</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:21" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -3732,38 +3705,38 @@
         <v>19</v>
       </c>
       <c r="J6" s="24" t="s">
-        <v>117</v>
+        <v>229</v>
       </c>
       <c r="K6" s="71" t="s">
-        <v>219</v>
+        <v>191</v>
       </c>
       <c r="L6" s="58" t="s">
-        <v>238</v>
+        <v>209</v>
       </c>
       <c r="M6" s="76" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="N6" s="76" t="s">
-        <v>221</v>
-      </c>
-      <c r="O6" s="22"/>
-      <c r="P6" s="44" t="s">
-        <v>19</v>
+        <v>193</v>
+      </c>
+      <c r="O6" s="49"/>
+      <c r="P6" s="51" t="s">
+        <v>18</v>
       </c>
       <c r="Q6" s="63">
         <v>6</v>
       </c>
       <c r="R6" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="S6" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="S6" s="25" t="s">
+      <c r="T6" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="U6" s="25" t="s">
         <v>119</v>
-      </c>
-      <c r="T6" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="U6" s="25" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -3780,32 +3753,32 @@
         <v>113</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="H7" s="93">
+        <v>121</v>
+      </c>
+      <c r="H7" s="81">
         <v>3</v>
       </c>
       <c r="I7" s="29" t="s">
         <v>19</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>124</v>
+        <v>230</v>
       </c>
       <c r="K7" s="71" t="s">
-        <v>219</v>
+        <v>191</v>
       </c>
       <c r="L7" s="39" t="s">
-        <v>238</v>
+        <v>209</v>
       </c>
       <c r="M7" s="76" t="s">
         <v>82</v>
       </c>
       <c r="N7" s="76" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
       <c r="O7" s="7"/>
       <c r="P7" s="29" t="s">
@@ -3815,16 +3788,16 @@
         <v>6</v>
       </c>
       <c r="R7" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="S7" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="S7" s="10" t="s">
+      <c r="T7" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="U7" s="10" t="s">
         <v>119</v>
-      </c>
-      <c r="T7" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="U7" s="10" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:21" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -3838,31 +3811,53 @@
         <v>113</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E8" s="19"/>
       <c r="F8" s="22"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="69"/>
+      <c r="G8" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="H8" s="60">
+        <v>4</v>
+      </c>
+      <c r="I8" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="K8" s="71" t="s">
+        <v>191</v>
+      </c>
       <c r="L8" s="35" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="M8" s="76" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
       <c r="N8" s="76" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
       <c r="O8" s="22"/>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="63"/>
-      <c r="R8" s="26"/>
-      <c r="S8" s="25"/>
-      <c r="T8" s="27"/>
-      <c r="U8" s="25"/>
+      <c r="P8" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q8" s="63">
+        <v>6</v>
+      </c>
+      <c r="R8" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="S8" s="53" t="s">
+        <v>212</v>
+      </c>
+      <c r="T8" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="U8" s="53" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="9" spans="1:21" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="31" t="s">
@@ -3875,35 +3870,35 @@
         <v>113</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F9" s="22"/>
       <c r="G9" s="23" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H9" s="60">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I9" s="34" t="s">
         <v>19</v>
       </c>
       <c r="J9" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="K9" s="71" t="s">
+        <v>191</v>
+      </c>
+      <c r="L9" s="35" t="s">
         <v>209</v>
       </c>
-      <c r="K9" s="71" t="s">
-        <v>219</v>
-      </c>
-      <c r="L9" s="35" t="s">
-        <v>238</v>
-      </c>
       <c r="M9" s="76" t="s">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="N9" s="76" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
       <c r="O9" s="22"/>
       <c r="P9" s="28" t="s">
@@ -3913,16 +3908,16 @@
         <v>6</v>
       </c>
       <c r="R9" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="S9" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="S9" s="25" t="s">
+      <c r="T9" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="U9" s="25" t="s">
         <v>119</v>
-      </c>
-      <c r="T9" s="27" t="s">
-        <v>208</v>
-      </c>
-      <c r="U9" s="25" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:21" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -3936,35 +3931,35 @@
         <v>113</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F10" s="22"/>
       <c r="G10" s="23" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H10" s="60">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I10" s="34" t="s">
         <v>19</v>
       </c>
       <c r="J10" s="24" t="s">
-        <v>131</v>
+        <v>233</v>
       </c>
       <c r="K10" s="71" t="s">
-        <v>219</v>
+        <v>191</v>
       </c>
       <c r="L10" s="35" t="s">
-        <v>237</v>
+        <v>208</v>
       </c>
       <c r="M10" s="76" t="s">
         <v>93</v>
       </c>
       <c r="N10" s="76" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
       <c r="O10" s="22"/>
       <c r="P10" s="28" t="s">
@@ -3974,16 +3969,16 @@
         <v>6</v>
       </c>
       <c r="R10" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="S10" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="S10" s="25" t="s">
+      <c r="T10" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="U10" s="25" t="s">
         <v>119</v>
-      </c>
-      <c r="T10" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="U10" s="25" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:21" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -3997,10 +3992,10 @@
         <v>113</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F11" s="22"/>
       <c r="G11" s="23"/>
@@ -4009,13 +4004,13 @@
       <c r="J11" s="24"/>
       <c r="K11" s="69"/>
       <c r="L11" s="35" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
       <c r="M11" s="76" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
       <c r="N11" s="76" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
       <c r="O11" s="22"/>
       <c r="P11" s="28"/>
@@ -4036,55 +4031,29 @@
         <v>113</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F12" s="22"/>
-      <c r="G12" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="H12" s="60">
-        <v>6</v>
-      </c>
-      <c r="I12" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="J12" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="K12" s="71" t="s">
-        <v>219</v>
-      </c>
-      <c r="L12" s="35" t="s">
-        <v>237</v>
-      </c>
+      <c r="G12" s="23"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="71"/>
+      <c r="L12" s="35"/>
       <c r="M12" s="76" t="s">
-        <v>221</v>
-      </c>
-      <c r="N12" s="76" t="s">
-        <v>222</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="N12" s="76"/>
       <c r="O12" s="22"/>
-      <c r="P12" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q12" s="63">
-        <v>6</v>
-      </c>
-      <c r="R12" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="S12" s="53" t="s">
-        <v>241</v>
-      </c>
-      <c r="T12" s="27" t="s">
-        <v>197</v>
-      </c>
-      <c r="U12" s="53" t="s">
-        <v>240</v>
-      </c>
+      <c r="P12" s="28"/>
+      <c r="Q12" s="63"/>
+      <c r="R12" s="26"/>
+      <c r="S12" s="53"/>
+      <c r="T12" s="27"/>
+      <c r="U12" s="53"/>
     </row>
     <row r="13" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="38" t="s">
@@ -4097,35 +4066,35 @@
         <v>113</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="H13" s="93">
+        <v>214</v>
+      </c>
+      <c r="H13" s="81">
         <v>7</v>
       </c>
       <c r="I13" s="29" t="s">
         <v>19</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="K13" s="71" t="s">
-        <v>219</v>
+        <v>191</v>
       </c>
       <c r="L13" s="35" t="s">
-        <v>238</v>
+        <v>209</v>
       </c>
       <c r="M13" s="76" t="s">
         <v>82</v>
       </c>
       <c r="N13" s="76" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
       <c r="O13" s="7"/>
       <c r="P13" s="28" t="s">
@@ -4135,16 +4104,16 @@
         <v>6</v>
       </c>
       <c r="R13" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="S13" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="S13" s="10" t="s">
+      <c r="T13" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="U13" s="10" t="s">
         <v>119</v>
-      </c>
-      <c r="T13" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="U13" s="10" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:21" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -4158,31 +4127,53 @@
         <v>113</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E14" s="19"/>
       <c r="F14" s="22"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="69"/>
+      <c r="G14" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="H14" s="60">
+        <v>8</v>
+      </c>
+      <c r="I14" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="J14" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="K14" s="71" t="s">
+        <v>191</v>
+      </c>
       <c r="L14" s="35" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="M14" s="76" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
       <c r="N14" s="76" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
       <c r="O14" s="22"/>
-      <c r="P14" s="28"/>
-      <c r="Q14" s="63"/>
-      <c r="R14" s="26"/>
-      <c r="S14" s="25"/>
-      <c r="T14" s="27"/>
-      <c r="U14" s="25"/>
+      <c r="P14" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q14" s="63">
+        <v>6</v>
+      </c>
+      <c r="R14" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="S14" s="53" t="s">
+        <v>212</v>
+      </c>
+      <c r="T14" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="U14" s="53" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="15" spans="1:21" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="31" t="s">
@@ -4195,35 +4186,35 @@
         <v>113</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F15" s="22"/>
       <c r="G15" s="23" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="H15" s="60">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I15" s="34" t="s">
         <v>19</v>
       </c>
       <c r="J15" s="24" t="s">
-        <v>140</v>
+        <v>236</v>
       </c>
       <c r="K15" s="71" t="s">
-        <v>219</v>
+        <v>191</v>
       </c>
       <c r="L15" s="35" t="s">
-        <v>237</v>
+        <v>208</v>
       </c>
       <c r="M15" s="76" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="N15" s="76" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
       <c r="O15" s="22"/>
       <c r="P15" s="44" t="s">
@@ -4233,16 +4224,16 @@
         <v>6</v>
       </c>
       <c r="R15" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="S15" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="S15" s="25" t="s">
+      <c r="T15" s="27" t="s">
+        <v>221</v>
+      </c>
+      <c r="U15" s="25" t="s">
         <v>119</v>
-      </c>
-      <c r="T15" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="U15" s="25" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:21" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -4256,10 +4247,10 @@
         <v>113</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="F16" s="22"/>
       <c r="G16" s="23"/>
@@ -4268,13 +4259,13 @@
       <c r="J16" s="24"/>
       <c r="K16" s="69"/>
       <c r="L16" s="35" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
       <c r="M16" s="76" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
       <c r="N16" s="76" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
       <c r="O16" s="22"/>
       <c r="P16" s="28"/>
@@ -4295,55 +4286,27 @@
         <v>113</v>
       </c>
       <c r="D17" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="E17" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="E17" s="19" t="s">
-        <v>143</v>
-      </c>
       <c r="F17" s="22"/>
-      <c r="G17" s="23" t="s">
-        <v>248</v>
-      </c>
-      <c r="H17" s="60">
-        <v>9</v>
-      </c>
-      <c r="I17" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="J17" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="K17" s="71" t="s">
-        <v>219</v>
-      </c>
-      <c r="L17" s="35" t="s">
-        <v>237</v>
-      </c>
-      <c r="M17" s="76" t="s">
-        <v>221</v>
-      </c>
-      <c r="N17" s="76" t="s">
-        <v>222</v>
-      </c>
+      <c r="G17" s="23"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="71"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="76"/>
+      <c r="N17" s="76"/>
       <c r="O17" s="22"/>
-      <c r="P17" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q17" s="63">
-        <v>6</v>
-      </c>
-      <c r="R17" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="S17" s="53" t="s">
-        <v>241</v>
-      </c>
-      <c r="T17" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="U17" s="53" t="s">
-        <v>240</v>
-      </c>
+      <c r="P17" s="28"/>
+      <c r="Q17" s="63"/>
+      <c r="R17" s="26"/>
+      <c r="S17" s="53"/>
+      <c r="T17" s="27"/>
+      <c r="U17" s="53"/>
     </row>
     <row r="18" spans="1:21" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="31" t="s">
@@ -4356,14 +4319,14 @@
         <v>113</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="F18" s="22"/>
       <c r="G18" s="23" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="H18" s="60">
         <v>10</v>
@@ -4372,19 +4335,19 @@
         <v>19</v>
       </c>
       <c r="J18" s="24" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="K18" s="71" t="s">
-        <v>219</v>
+        <v>191</v>
       </c>
       <c r="L18" s="35" t="s">
-        <v>237</v>
+        <v>208</v>
       </c>
       <c r="M18" s="76" t="s">
         <v>69</v>
       </c>
       <c r="N18" s="76" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
       <c r="O18" s="22"/>
       <c r="P18" s="28" t="s">
@@ -4394,16 +4357,16 @@
         <v>6</v>
       </c>
       <c r="R18" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="S18" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="S18" s="25" t="s">
+      <c r="T18" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="U18" s="25" t="s">
         <v>119</v>
-      </c>
-      <c r="T18" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="U18" s="25" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -4417,35 +4380,35 @@
         <v>113</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="H19" s="93">
+        <v>216</v>
+      </c>
+      <c r="H19" s="81">
         <v>11</v>
       </c>
       <c r="I19" s="29" t="s">
         <v>19</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="K19" s="71" t="s">
-        <v>219</v>
+        <v>191</v>
       </c>
       <c r="L19" s="35" t="s">
-        <v>238</v>
+        <v>209</v>
       </c>
       <c r="M19" s="76" t="s">
         <v>82</v>
       </c>
       <c r="N19" s="76" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
       <c r="O19" s="7"/>
       <c r="P19" s="28" t="s">
@@ -4455,16 +4418,16 @@
         <v>6</v>
       </c>
       <c r="R19" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="S19" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="S19" s="10" t="s">
+      <c r="T19" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="U19" s="10" t="s">
         <v>119</v>
-      </c>
-      <c r="T19" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="U19" s="10" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:21" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -4478,7 +4441,7 @@
         <v>113</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="E20" s="19"/>
       <c r="F20" s="22"/>
@@ -4488,13 +4451,13 @@
       <c r="J20" s="24"/>
       <c r="K20" s="69"/>
       <c r="L20" s="35" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
       <c r="M20" s="76" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
       <c r="N20" s="76" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
       <c r="O20" s="22"/>
       <c r="P20" s="28"/>
@@ -4515,14 +4478,14 @@
         <v>113</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="F21" s="22"/>
       <c r="G21" s="23" t="s">
-        <v>210</v>
+        <v>184</v>
       </c>
       <c r="H21" s="60">
         <v>12</v>
@@ -4531,19 +4494,19 @@
         <v>18</v>
       </c>
       <c r="J21" s="24" t="s">
-        <v>211</v>
+        <v>239</v>
       </c>
       <c r="K21" s="71" t="s">
-        <v>219</v>
+        <v>191</v>
       </c>
       <c r="L21" s="35" t="s">
-        <v>237</v>
+        <v>208</v>
       </c>
       <c r="M21" s="76" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
       <c r="N21" s="76" t="s">
-        <v>223</v>
+        <v>195</v>
       </c>
       <c r="O21" s="22"/>
       <c r="P21" s="28" t="s">
@@ -4553,16 +4516,16 @@
         <v>6</v>
       </c>
       <c r="R21" s="26" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="S21" s="53" t="s">
-        <v>241</v>
+        <v>212</v>
       </c>
       <c r="T21" s="27" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="U21" s="53" t="s">
-        <v>240</v>
+        <v>211</v>
       </c>
     </row>
     <row r="22" spans="1:21" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -4576,13 +4539,13 @@
         <v>113</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="F22" s="22" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="G22" s="23"/>
       <c r="H22" s="60"/>
@@ -4590,13 +4553,13 @@
       <c r="J22" s="24"/>
       <c r="K22" s="69"/>
       <c r="L22" s="35" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
       <c r="M22" s="76" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
       <c r="N22" s="76" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
       <c r="O22" s="22"/>
       <c r="P22" s="28"/>
@@ -4617,10 +4580,10 @@
         <v>113</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="E23" s="19" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="F23" s="22"/>
       <c r="G23" s="23"/>
@@ -4629,13 +4592,13 @@
       <c r="J23" s="24"/>
       <c r="K23" s="69"/>
       <c r="L23" s="35" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
       <c r="M23" s="76" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
       <c r="N23" s="76" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
       <c r="O23" s="22"/>
       <c r="P23" s="28"/>
@@ -4656,16 +4619,16 @@
         <v>113</v>
       </c>
       <c r="D24" s="21" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="E24" s="19" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="F24" s="22" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="G24" s="23" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="H24" s="60">
         <v>13</v>
@@ -4674,19 +4637,19 @@
         <v>19</v>
       </c>
       <c r="J24" s="24" t="s">
-        <v>153</v>
+        <v>240</v>
       </c>
       <c r="K24" s="71" t="s">
-        <v>219</v>
+        <v>191</v>
       </c>
       <c r="L24" s="35" t="s">
-        <v>237</v>
+        <v>208</v>
       </c>
       <c r="M24" s="76" t="s">
         <v>100</v>
       </c>
       <c r="N24" s="76" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
       <c r="O24" s="22"/>
       <c r="P24" s="28" t="s">
@@ -4696,16 +4659,16 @@
         <v>6</v>
       </c>
       <c r="R24" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="S24" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="S24" s="25" t="s">
+      <c r="T24" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="U24" s="25" t="s">
         <v>119</v>
-      </c>
-      <c r="T24" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="U24" s="25" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="25" spans="1:21" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -4719,57 +4682,35 @@
         <v>113</v>
       </c>
       <c r="D25" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="F25" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="E25" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="F25" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="G25" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="H25" s="60">
-        <v>14</v>
-      </c>
-      <c r="I25" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="J25" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="K25" s="71" t="s">
-        <v>219</v>
-      </c>
+      <c r="G25" s="23"/>
+      <c r="H25" s="60"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="69"/>
       <c r="L25" s="35" t="s">
-        <v>238</v>
+        <v>193</v>
       </c>
       <c r="M25" s="76" t="s">
-        <v>84</v>
+        <v>193</v>
       </c>
       <c r="N25" s="76" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
       <c r="O25" s="22"/>
-      <c r="P25" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q25" s="63">
-        <v>6</v>
-      </c>
-      <c r="R25" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="S25" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="T25" s="27" t="s">
-        <v>161</v>
-      </c>
-      <c r="U25" s="25" t="s">
-        <v>121</v>
-      </c>
+      <c r="P25" s="28"/>
+      <c r="Q25" s="63"/>
+      <c r="R25" s="26"/>
+      <c r="S25" s="25"/>
+      <c r="T25" s="27"/>
+      <c r="U25" s="25"/>
     </row>
     <row r="26" spans="1:21" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="31" t="s">
@@ -4782,57 +4723,35 @@
         <v>113</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="G26" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="H26" s="60">
-        <v>15</v>
-      </c>
-      <c r="I26" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="J26" s="24" t="s">
-        <v>252</v>
-      </c>
-      <c r="K26" s="71" t="s">
-        <v>219</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="G26" s="23"/>
+      <c r="H26" s="60"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="69"/>
       <c r="L26" s="35" t="s">
-        <v>238</v>
+        <v>193</v>
       </c>
       <c r="M26" s="76" t="s">
-        <v>84</v>
+        <v>193</v>
       </c>
       <c r="N26" s="76" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
       <c r="O26" s="22"/>
-      <c r="P26" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q26" s="63">
-        <v>6</v>
-      </c>
-      <c r="R26" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="S26" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="T26" s="27" t="s">
-        <v>204</v>
-      </c>
-      <c r="U26" s="25" t="s">
-        <v>121</v>
-      </c>
+      <c r="P26" s="28"/>
+      <c r="Q26" s="63"/>
+      <c r="R26" s="26"/>
+      <c r="S26" s="25"/>
+      <c r="T26" s="27"/>
+      <c r="U26" s="25"/>
     </row>
     <row r="27" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="38" t="s">
@@ -4845,35 +4764,35 @@
         <v>113</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F27" s="7"/>
       <c r="G27" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="H27" s="93">
-        <v>16</v>
+        <v>148</v>
+      </c>
+      <c r="H27" s="81">
+        <v>14</v>
       </c>
       <c r="I27" s="29" t="s">
         <v>19</v>
       </c>
       <c r="J27" s="9" t="s">
-        <v>160</v>
+        <v>246</v>
       </c>
       <c r="K27" s="71" t="s">
-        <v>219</v>
+        <v>191</v>
       </c>
       <c r="L27" s="39" t="s">
-        <v>238</v>
+        <v>209</v>
       </c>
       <c r="M27" s="76" t="s">
         <v>82</v>
       </c>
       <c r="N27" s="76" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
       <c r="O27" s="7"/>
       <c r="P27" s="29" t="s">
@@ -4883,16 +4802,16 @@
         <v>6</v>
       </c>
       <c r="R27" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="S27" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="S27" s="10" t="s">
+      <c r="T27" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="U27" s="10" t="s">
         <v>119</v>
-      </c>
-      <c r="T27" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="U27" s="10" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="28" spans="1:21" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -4906,7 +4825,7 @@
         <v>113</v>
       </c>
       <c r="D28" s="21" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="E28" s="19"/>
       <c r="F28" s="22"/>
@@ -4916,13 +4835,13 @@
       <c r="J28" s="24"/>
       <c r="K28" s="69"/>
       <c r="L28" s="35" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
       <c r="M28" s="76" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
       <c r="N28" s="76" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
       <c r="O28" s="22"/>
       <c r="P28" s="28"/>
@@ -4943,10 +4862,10 @@
         <v>113</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="E29" s="19" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="F29" s="22"/>
       <c r="G29" s="23"/>
@@ -4955,13 +4874,13 @@
       <c r="J29" s="24"/>
       <c r="K29" s="69"/>
       <c r="L29" s="35" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
       <c r="M29" s="76" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
       <c r="N29" s="76" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
       <c r="O29" s="22"/>
       <c r="P29" s="44"/>
@@ -4982,10 +4901,10 @@
         <v>113</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="E30" s="19" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="F30" s="22"/>
       <c r="G30" s="23"/>
@@ -4994,13 +4913,13 @@
       <c r="J30" s="24"/>
       <c r="K30" s="69"/>
       <c r="L30" s="35" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
       <c r="M30" s="76" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
       <c r="N30" s="76" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
       <c r="O30" s="22"/>
       <c r="P30" s="28"/>
@@ -5021,10 +4940,10 @@
         <v>113</v>
       </c>
       <c r="D31" s="21" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="E31" s="19" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="F31" s="22"/>
       <c r="G31" s="23"/>
@@ -5033,13 +4952,13 @@
       <c r="J31" s="24"/>
       <c r="K31" s="69"/>
       <c r="L31" s="35" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
       <c r="M31" s="76" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
       <c r="N31" s="76" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
       <c r="O31" s="22"/>
       <c r="P31" s="28"/>
@@ -5060,10 +4979,10 @@
         <v>113</v>
       </c>
       <c r="D32" s="21" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="E32" s="19" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="F32" s="22"/>
       <c r="G32" s="23"/>
@@ -5072,13 +4991,13 @@
       <c r="J32" s="24"/>
       <c r="K32" s="69"/>
       <c r="L32" s="35" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
       <c r="M32" s="76" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
       <c r="N32" s="76" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
       <c r="O32" s="22"/>
       <c r="P32" s="28"/>
@@ -5099,33 +5018,55 @@
         <v>113</v>
       </c>
       <c r="D33" s="21" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="E33" s="19" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="F33" s="22"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="60"/>
-      <c r="I33" s="34"/>
-      <c r="J33" s="24"/>
-      <c r="K33" s="69"/>
+      <c r="G33" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="H33" s="60">
+        <v>15</v>
+      </c>
+      <c r="I33" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="J33" s="24" t="s">
+        <v>241</v>
+      </c>
+      <c r="K33" s="71" t="s">
+        <v>191</v>
+      </c>
       <c r="L33" s="35" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="M33" s="76" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
       <c r="N33" s="76" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O33" s="22"/>
-      <c r="P33" s="28"/>
-      <c r="Q33" s="63"/>
-      <c r="R33" s="26"/>
-      <c r="S33" s="25"/>
-      <c r="T33" s="27"/>
-      <c r="U33" s="25"/>
+      <c r="P33" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q33" s="63">
+        <v>6</v>
+      </c>
+      <c r="R33" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="S33" s="53" t="s">
+        <v>222</v>
+      </c>
+      <c r="T33" s="27" t="s">
+        <v>223</v>
+      </c>
+      <c r="U33" s="53" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="34" spans="1:21" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="31" t="s">
@@ -5138,35 +5079,35 @@
         <v>113</v>
       </c>
       <c r="D34" s="21" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="E34" s="19" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="F34" s="22"/>
       <c r="G34" s="23" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="H34" s="60">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I34" s="34" t="s">
         <v>19</v>
       </c>
       <c r="J34" s="24" t="s">
-        <v>175</v>
+        <v>242</v>
       </c>
       <c r="K34" s="71" t="s">
-        <v>219</v>
+        <v>191</v>
       </c>
       <c r="L34" s="35" t="s">
-        <v>237</v>
+        <v>208</v>
       </c>
       <c r="M34" s="76" t="s">
         <v>80</v>
       </c>
       <c r="N34" s="76" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
       <c r="O34" s="22"/>
       <c r="P34" s="28" t="s">
@@ -5176,16 +5117,16 @@
         <v>6</v>
       </c>
       <c r="R34" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="S34" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="S34" s="25" t="s">
+      <c r="T34" s="27" t="s">
+        <v>159</v>
+      </c>
+      <c r="U34" s="25" t="s">
         <v>119</v>
-      </c>
-      <c r="T34" s="27" t="s">
-        <v>176</v>
-      </c>
-      <c r="U34" s="25" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="35" spans="1:21" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -5199,55 +5140,27 @@
         <v>113</v>
       </c>
       <c r="D35" s="21" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="E35" s="19" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="F35" s="22"/>
-      <c r="G35" s="23" t="s">
-        <v>254</v>
-      </c>
-      <c r="H35" s="60">
-        <v>18</v>
-      </c>
-      <c r="I35" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="J35" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="K35" s="71" t="s">
-        <v>219</v>
-      </c>
-      <c r="L35" s="35" t="s">
-        <v>237</v>
-      </c>
-      <c r="M35" s="76" t="s">
-        <v>221</v>
-      </c>
-      <c r="N35" s="76" t="s">
-        <v>224</v>
-      </c>
+      <c r="G35" s="23"/>
+      <c r="H35" s="60"/>
+      <c r="I35" s="34"/>
+      <c r="J35" s="24"/>
+      <c r="K35" s="71"/>
+      <c r="L35" s="35"/>
+      <c r="M35" s="76"/>
+      <c r="N35" s="76"/>
       <c r="O35" s="22"/>
-      <c r="P35" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q35" s="63">
-        <v>6</v>
-      </c>
-      <c r="R35" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="S35" s="53" t="s">
-        <v>241</v>
-      </c>
-      <c r="T35" s="27" t="s">
-        <v>196</v>
-      </c>
-      <c r="U35" s="53" t="s">
-        <v>240</v>
-      </c>
+      <c r="P35" s="28"/>
+      <c r="Q35" s="63"/>
+      <c r="R35" s="26"/>
+      <c r="S35" s="53"/>
+      <c r="T35" s="27"/>
+      <c r="U35" s="53"/>
     </row>
     <row r="36" spans="1:21" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="31" t="s">
@@ -5260,35 +5173,35 @@
         <v>113</v>
       </c>
       <c r="D36" s="21" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="E36" s="19" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="F36" s="22"/>
       <c r="G36" s="23" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="H36" s="60">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I36" s="34" t="s">
         <v>19</v>
       </c>
       <c r="J36" s="24" t="s">
-        <v>164</v>
+        <v>243</v>
       </c>
       <c r="K36" s="71" t="s">
-        <v>219</v>
+        <v>191</v>
       </c>
       <c r="L36" s="35" t="s">
-        <v>238</v>
+        <v>209</v>
       </c>
       <c r="M36" s="76" t="s">
         <v>68</v>
       </c>
       <c r="N36" s="76" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
       <c r="O36" s="22"/>
       <c r="P36" s="44" t="s">
@@ -5298,16 +5211,16 @@
         <v>6</v>
       </c>
       <c r="R36" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="S36" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="S36" s="25" t="s">
+      <c r="T36" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="U36" s="25" t="s">
         <v>119</v>
-      </c>
-      <c r="T36" s="27" t="s">
-        <v>218</v>
-      </c>
-      <c r="U36" s="25" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="37" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -5321,35 +5234,35 @@
         <v>113</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="F37" s="7"/>
       <c r="G37" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="H37" s="93">
-        <v>20</v>
+        <v>158</v>
+      </c>
+      <c r="H37" s="81">
+        <v>18</v>
       </c>
       <c r="I37" s="29" t="s">
         <v>19</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>174</v>
+        <v>244</v>
       </c>
       <c r="K37" s="71" t="s">
-        <v>219</v>
+        <v>191</v>
       </c>
       <c r="L37" s="35" t="s">
-        <v>238</v>
+        <v>209</v>
       </c>
       <c r="M37" s="76" t="s">
         <v>82</v>
       </c>
       <c r="N37" s="76" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
       <c r="O37" s="7"/>
       <c r="P37" s="28" t="s">
@@ -5359,16 +5272,16 @@
         <v>6</v>
       </c>
       <c r="R37" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="S37" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="S37" s="10" t="s">
+      <c r="T37" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="U37" s="10" t="s">
         <v>119</v>
-      </c>
-      <c r="T37" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="U37" s="10" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="38" spans="1:21" s="56" customFormat="1" x14ac:dyDescent="0.25">
@@ -5382,7 +5295,7 @@
         <v>113</v>
       </c>
       <c r="D38" s="48" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="E38" s="46"/>
       <c r="F38" s="49"/>
@@ -5392,13 +5305,13 @@
       <c r="J38" s="52"/>
       <c r="K38" s="70"/>
       <c r="L38" s="42" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
       <c r="M38" s="76" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
       <c r="N38" s="76" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
       <c r="O38" s="49"/>
       <c r="P38" s="51"/>
@@ -5419,10 +5332,10 @@
         <v>113</v>
       </c>
       <c r="D39" s="48" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="E39" s="46" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="F39" s="49"/>
       <c r="G39" s="50"/>
@@ -5431,13 +5344,13 @@
       <c r="J39" s="52"/>
       <c r="K39" s="70"/>
       <c r="L39" s="42" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
       <c r="M39" s="76" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
       <c r="N39" s="76" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
       <c r="O39" s="49"/>
       <c r="P39" s="51"/>
@@ -5458,13 +5371,13 @@
         <v>113</v>
       </c>
       <c r="D40" s="48" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="E40" s="46" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="F40" s="49" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="G40" s="50"/>
       <c r="H40" s="61"/>
@@ -5472,13 +5385,13 @@
       <c r="J40" s="52"/>
       <c r="K40" s="70"/>
       <c r="L40" s="42" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
       <c r="M40" s="76" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
       <c r="N40" s="76" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
       <c r="O40" s="49"/>
       <c r="P40" s="51"/>
@@ -5499,10 +5412,10 @@
         <v>113</v>
       </c>
       <c r="D41" s="48" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="E41" s="46" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="F41" s="49"/>
       <c r="G41" s="50"/>
@@ -5511,13 +5424,13 @@
       <c r="J41" s="52"/>
       <c r="K41" s="70"/>
       <c r="L41" s="42" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
       <c r="M41" s="76" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
       <c r="N41" s="76" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
       <c r="O41" s="49"/>
       <c r="P41" s="51"/>
@@ -5538,13 +5451,13 @@
         <v>113</v>
       </c>
       <c r="D42" s="48" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="E42" s="46" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="F42" s="49" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="G42" s="50"/>
       <c r="H42" s="61"/>
@@ -5552,13 +5465,13 @@
       <c r="J42" s="52"/>
       <c r="K42" s="70"/>
       <c r="L42" s="42" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
       <c r="M42" s="76" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
       <c r="N42" s="76" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
       <c r="O42" s="49"/>
       <c r="P42" s="51"/>
@@ -5579,13 +5492,13 @@
         <v>113</v>
       </c>
       <c r="D43" s="48" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="E43" s="46" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="F43" s="49" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="G43" s="50"/>
       <c r="H43" s="61"/>
@@ -5593,13 +5506,13 @@
       <c r="J43" s="52"/>
       <c r="K43" s="70"/>
       <c r="L43" s="42" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
       <c r="M43" s="76" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
       <c r="N43" s="76" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
       <c r="O43" s="49"/>
       <c r="P43" s="51"/>
@@ -5620,35 +5533,35 @@
         <v>113</v>
       </c>
       <c r="D44" s="48" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="E44" s="46" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="F44" s="49"/>
       <c r="G44" s="50" t="s">
-        <v>212</v>
+        <v>185</v>
       </c>
       <c r="H44" s="61">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I44" s="51" t="s">
         <v>18</v>
       </c>
       <c r="J44" s="52" t="s">
-        <v>213</v>
+        <v>245</v>
       </c>
       <c r="K44" s="71" t="s">
-        <v>219</v>
+        <v>191</v>
       </c>
       <c r="L44" s="42" t="s">
-        <v>237</v>
+        <v>208</v>
       </c>
       <c r="M44" s="76" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
       <c r="N44" s="76" t="s">
-        <v>223</v>
+        <v>195</v>
       </c>
       <c r="O44" s="49"/>
       <c r="P44" s="51" t="s">
@@ -5658,138 +5571,136 @@
         <v>6</v>
       </c>
       <c r="R44" s="54" t="s">
+        <v>117</v>
+      </c>
+      <c r="S44" s="53" t="s">
+        <v>212</v>
+      </c>
+      <c r="T44" s="55" t="s">
+        <v>189</v>
+      </c>
+      <c r="U44" s="53" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="B45" s="46" t="s">
+        <v>112</v>
+      </c>
+      <c r="C45" s="47" t="s">
+        <v>113</v>
+      </c>
+      <c r="D45" s="48" t="s">
+        <v>174</v>
+      </c>
+      <c r="E45" s="46" t="s">
+        <v>165</v>
+      </c>
+      <c r="F45" s="49"/>
+      <c r="G45" s="50" t="s">
+        <v>217</v>
+      </c>
+      <c r="H45" s="61">
+        <v>20</v>
+      </c>
+      <c r="I45" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="J45" s="52" t="s">
+        <v>218</v>
+      </c>
+      <c r="K45" s="71" t="s">
+        <v>191</v>
+      </c>
+      <c r="L45" s="42" t="s">
+        <v>209</v>
+      </c>
+      <c r="M45" s="76" t="s">
+        <v>92</v>
+      </c>
+      <c r="N45" s="76"/>
+      <c r="O45" s="49"/>
+      <c r="P45" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q45" s="64">
+        <v>6</v>
+      </c>
+      <c r="R45" s="54" t="s">
+        <v>117</v>
+      </c>
+      <c r="S45" s="53" t="s">
         <v>118</v>
       </c>
-      <c r="S44" s="53" t="s">
-        <v>241</v>
-      </c>
-      <c r="T44" s="55" t="s">
-        <v>217</v>
-      </c>
-      <c r="U44" s="53" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="45" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="38" t="s">
+      <c r="T45" s="55" t="s">
+        <v>225</v>
+      </c>
+      <c r="U45" s="53" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B46" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C46" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="D45" s="48" t="s">
-        <v>193</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="F45" s="7"/>
-      <c r="G45" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="H45" s="93">
-        <v>22</v>
-      </c>
-      <c r="I45" s="29" t="s">
+      <c r="D46" s="48" t="s">
+        <v>174</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F46" s="7"/>
+      <c r="G46" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="H46" s="81">
+        <v>21</v>
+      </c>
+      <c r="I46" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="J45" s="9" t="s">
+      <c r="J46" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="K46" s="71" t="s">
+        <v>191</v>
+      </c>
+      <c r="L46" s="39" t="s">
+        <v>209</v>
+      </c>
+      <c r="M46" s="76" t="s">
+        <v>82</v>
+      </c>
+      <c r="N46" s="76" t="s">
+        <v>193</v>
+      </c>
+      <c r="O46" s="7"/>
+      <c r="P46" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q46" s="65">
+        <v>6</v>
+      </c>
+      <c r="R46" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="S46" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="T46" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="K45" s="71" t="s">
-        <v>219</v>
-      </c>
-      <c r="L45" s="39" t="s">
-        <v>238</v>
-      </c>
-      <c r="M45" s="76" t="s">
-        <v>82</v>
-      </c>
-      <c r="N45" s="76" t="s">
-        <v>221</v>
-      </c>
-      <c r="O45" s="7"/>
-      <c r="P45" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q45" s="65">
-        <v>6</v>
-      </c>
-      <c r="R45" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="S45" s="10" t="s">
+      <c r="U46" s="10" t="s">
         <v>119</v>
-      </c>
-      <c r="T45" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="U45" s="10" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="46" spans="1:21" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="45" t="s">
-        <v>111</v>
-      </c>
-      <c r="B46" s="46" t="s">
-        <v>112</v>
-      </c>
-      <c r="C46" s="47" t="s">
-        <v>113</v>
-      </c>
-      <c r="D46" s="48" t="s">
-        <v>184</v>
-      </c>
-      <c r="E46" s="46"/>
-      <c r="F46" s="49"/>
-      <c r="G46" s="95" t="s">
-        <v>253</v>
-      </c>
-      <c r="H46" s="96">
-        <v>23</v>
-      </c>
-      <c r="I46" s="97" t="s">
-        <v>18</v>
-      </c>
-      <c r="J46" s="98" t="s">
-        <v>244</v>
-      </c>
-      <c r="K46" s="71" t="s">
-        <v>219</v>
-      </c>
-      <c r="L46" s="42" t="s">
-        <v>238</v>
-      </c>
-      <c r="M46" s="76" t="s">
-        <v>221</v>
-      </c>
-      <c r="N46" s="76" t="s">
-        <v>225</v>
-      </c>
-      <c r="O46" s="49" t="s">
-        <v>243</v>
-      </c>
-      <c r="P46" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q46" s="63">
-        <v>6</v>
-      </c>
-      <c r="R46" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="S46" s="53" t="s">
-        <v>241</v>
-      </c>
-      <c r="T46" s="27" t="s">
-        <v>216</v>
-      </c>
-      <c r="U46" s="53" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="47" spans="1:21" s="56" customFormat="1" x14ac:dyDescent="0.25">
@@ -5803,52 +5714,52 @@
         <v>113</v>
       </c>
       <c r="D47" s="48" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="E47" s="46"/>
       <c r="F47" s="49"/>
       <c r="G47" s="50" t="s">
-        <v>185</v>
-      </c>
-      <c r="H47" s="60">
-        <v>24</v>
+        <v>115</v>
+      </c>
+      <c r="H47" s="61">
+        <v>22</v>
       </c>
       <c r="I47" s="51" t="s">
         <v>18</v>
       </c>
       <c r="J47" s="52" t="s">
-        <v>245</v>
+        <v>213</v>
       </c>
       <c r="K47" s="71" t="s">
-        <v>219</v>
+        <v>191</v>
       </c>
       <c r="L47" s="42" t="s">
-        <v>238</v>
+        <v>209</v>
       </c>
       <c r="M47" s="76" t="s">
-        <v>84</v>
+        <v>193</v>
       </c>
       <c r="N47" s="76" t="s">
-        <v>221</v>
+        <v>196</v>
       </c>
       <c r="O47" s="49"/>
       <c r="P47" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="Q47" s="65">
+      <c r="Q47" s="63">
         <v>6</v>
       </c>
-      <c r="R47" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="S47" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="T47" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="U47" s="10" t="s">
-        <v>121</v>
+      <c r="R47" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="S47" s="53" t="s">
+        <v>212</v>
+      </c>
+      <c r="T47" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="U47" s="53" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="48" spans="1:21" s="56" customFormat="1" x14ac:dyDescent="0.25">
@@ -5862,201 +5773,348 @@
         <v>113</v>
       </c>
       <c r="D48" s="48" t="s">
-        <v>186</v>
-      </c>
-      <c r="E48" s="46"/>
+        <v>167</v>
+      </c>
+      <c r="E48" s="4"/>
       <c r="F48" s="49"/>
       <c r="G48" s="50" t="s">
-        <v>10</v>
+        <v>252</v>
       </c>
       <c r="H48" s="61">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I48" s="51" t="s">
         <v>19</v>
       </c>
       <c r="J48" s="52" t="s">
-        <v>187</v>
+        <v>247</v>
       </c>
       <c r="K48" s="71" t="s">
-        <v>219</v>
+        <v>191</v>
       </c>
       <c r="L48" s="42" t="s">
-        <v>239</v>
+        <v>209</v>
       </c>
       <c r="M48" s="76" t="s">
-        <v>221</v>
+        <v>84</v>
       </c>
       <c r="N48" s="76" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
       <c r="O48" s="49"/>
       <c r="P48" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="Q48" s="64"/>
-      <c r="R48" s="54"/>
-      <c r="S48" s="53"/>
-      <c r="T48" s="55"/>
-      <c r="U48" s="53"/>
-    </row>
-    <row r="49" spans="1:21" s="92" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="77" t="s">
+      <c r="Q48" s="63">
+        <v>6</v>
+      </c>
+      <c r="R48" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="S48" s="53" t="s">
+        <v>118</v>
+      </c>
+      <c r="T48" s="27" t="s">
+        <v>226</v>
+      </c>
+      <c r="U48" s="53" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="B49" s="78" t="s">
+      <c r="B49" s="46" t="s">
         <v>112</v>
       </c>
-      <c r="C49" s="79" t="s">
+      <c r="C49" s="47" t="s">
         <v>113</v>
       </c>
-      <c r="D49" s="80" t="s">
-        <v>186</v>
-      </c>
-      <c r="E49" s="78"/>
-      <c r="F49" s="81"/>
-      <c r="G49" s="82" t="s">
-        <v>195</v>
-      </c>
-      <c r="H49" s="94">
-        <v>26</v>
-      </c>
-      <c r="I49" s="83" t="s">
+      <c r="D49" s="48" t="s">
+        <v>167</v>
+      </c>
+      <c r="E49" s="46"/>
+      <c r="F49" s="49"/>
+      <c r="G49" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="H49" s="60">
+        <v>24</v>
+      </c>
+      <c r="I49" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="J49" s="84" t="s">
-        <v>215</v>
-      </c>
-      <c r="K49" s="85" t="s">
-        <v>219</v>
-      </c>
-      <c r="L49" s="86" t="s">
-        <v>237</v>
-      </c>
-      <c r="M49" s="87" t="s">
-        <v>98</v>
-      </c>
-      <c r="N49" s="87" t="s">
-        <v>221</v>
-      </c>
-      <c r="O49" s="81"/>
-      <c r="P49" s="83" t="s">
+      <c r="J49" s="24" t="s">
+        <v>255</v>
+      </c>
+      <c r="K49" s="71" t="s">
+        <v>191</v>
+      </c>
+      <c r="L49" s="35" t="s">
+        <v>209</v>
+      </c>
+      <c r="M49" s="76" t="s">
+        <v>84</v>
+      </c>
+      <c r="N49" s="76" t="s">
+        <v>193</v>
+      </c>
+      <c r="O49" s="22"/>
+      <c r="P49" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q49" s="63">
+        <v>6</v>
+      </c>
+      <c r="R49" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="S49" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="T49" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="U49" s="25" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="B50" s="46" t="s">
+        <v>112</v>
+      </c>
+      <c r="C50" s="47" t="s">
+        <v>113</v>
+      </c>
+      <c r="D50" s="48" t="s">
+        <v>167</v>
+      </c>
+      <c r="E50" s="46"/>
+      <c r="F50" s="49"/>
+      <c r="G50" s="50" t="s">
+        <v>254</v>
+      </c>
+      <c r="H50" s="60">
+        <v>25</v>
+      </c>
+      <c r="I50" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="J50" s="52" t="s">
+        <v>256</v>
+      </c>
+      <c r="K50" s="71" t="s">
+        <v>191</v>
+      </c>
+      <c r="L50" s="42" t="s">
+        <v>209</v>
+      </c>
+      <c r="M50" s="76" t="s">
+        <v>84</v>
+      </c>
+      <c r="N50" s="76" t="s">
+        <v>193</v>
+      </c>
+      <c r="O50" s="49"/>
+      <c r="P50" s="51" t="s">
         <v>18</v>
-      </c>
-      <c r="Q49" s="88">
-        <v>6</v>
-      </c>
-      <c r="R49" s="89" t="s">
-        <v>118</v>
-      </c>
-      <c r="S49" s="90" t="s">
-        <v>119</v>
-      </c>
-      <c r="T49" s="91" t="s">
-        <v>188</v>
-      </c>
-      <c r="U49" s="90" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="50" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="E50" s="4"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="H50" s="93">
-        <v>27</v>
-      </c>
-      <c r="I50" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="J50" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="K50" s="71" t="s">
-        <v>219</v>
-      </c>
-      <c r="L50" s="39" t="s">
-        <v>238</v>
-      </c>
-      <c r="M50" s="76" t="s">
-        <v>83</v>
-      </c>
-      <c r="N50" s="76" t="s">
-        <v>221</v>
-      </c>
-      <c r="O50" s="7"/>
-      <c r="P50" s="68" t="s">
-        <v>19</v>
       </c>
       <c r="Q50" s="65">
         <v>6</v>
       </c>
       <c r="R50" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="S50" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="S50" s="10" t="s">
+      <c r="T50" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="U50" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="T50" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="U50" s="10" t="s">
-        <v>121</v>
-      </c>
     </row>
     <row r="51" spans="1:21" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F51" s="66"/>
-      <c r="H51" s="67"/>
-      <c r="I51" s="66"/>
-      <c r="M51" s="73"/>
-      <c r="N51" s="73"/>
-      <c r="Q51" s="66"/>
-      <c r="R51" s="67"/>
-      <c r="S51" s="67"/>
-    </row>
-    <row r="52" spans="1:21" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F52" s="40"/>
-      <c r="H52" s="41"/>
-      <c r="I52" s="40"/>
-      <c r="M52" s="72"/>
-      <c r="N52" s="72"/>
-      <c r="Q52" s="40"/>
-      <c r="R52" s="41"/>
-      <c r="S52" s="41"/>
-    </row>
-    <row r="53" spans="1:21" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F53" s="40"/>
-      <c r="H53" s="41"/>
-      <c r="I53" s="40"/>
-      <c r="M53" s="72"/>
-      <c r="N53" s="72"/>
-      <c r="Q53" s="40"/>
-      <c r="R53" s="41"/>
-      <c r="S53" s="41"/>
-    </row>
-    <row r="54" spans="1:21" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F54" s="40"/>
-      <c r="H54" s="41"/>
-      <c r="I54" s="40"/>
-      <c r="M54" s="72"/>
-      <c r="N54" s="72"/>
-      <c r="Q54" s="40"/>
-      <c r="R54" s="41"/>
-      <c r="S54" s="41"/>
+      <c r="A51" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="B51" s="46" t="s">
+        <v>112</v>
+      </c>
+      <c r="C51" s="47" t="s">
+        <v>113</v>
+      </c>
+      <c r="D51" s="48" t="s">
+        <v>168</v>
+      </c>
+      <c r="E51" s="46"/>
+      <c r="F51" s="49"/>
+      <c r="G51" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="H51" s="61">
+        <v>26</v>
+      </c>
+      <c r="I51" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="J51" s="52" t="s">
+        <v>248</v>
+      </c>
+      <c r="K51" s="71" t="s">
+        <v>191</v>
+      </c>
+      <c r="L51" s="42" t="s">
+        <v>210</v>
+      </c>
+      <c r="M51" s="76" t="s">
+        <v>193</v>
+      </c>
+      <c r="N51" s="76" t="s">
+        <v>193</v>
+      </c>
+      <c r="O51" s="49"/>
+      <c r="P51" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q51" s="64"/>
+      <c r="R51" s="54"/>
+      <c r="S51" s="53"/>
+      <c r="T51" s="55"/>
+      <c r="U51" s="53"/>
+    </row>
+    <row r="52" spans="1:21" s="80" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="77" t="s">
+        <v>111</v>
+      </c>
+      <c r="B52" s="78" t="s">
+        <v>112</v>
+      </c>
+      <c r="C52" s="47" t="s">
+        <v>113</v>
+      </c>
+      <c r="D52" s="48" t="s">
+        <v>168</v>
+      </c>
+      <c r="E52" s="78"/>
+      <c r="F52" s="79"/>
+      <c r="G52" s="50" t="s">
+        <v>176</v>
+      </c>
+      <c r="H52" s="61">
+        <v>27</v>
+      </c>
+      <c r="I52" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="J52" s="52" t="s">
+        <v>187</v>
+      </c>
+      <c r="K52" s="70" t="s">
+        <v>191</v>
+      </c>
+      <c r="L52" s="42" t="s">
+        <v>208</v>
+      </c>
+      <c r="M52" s="83" t="s">
+        <v>98</v>
+      </c>
+      <c r="N52" s="83" t="s">
+        <v>193</v>
+      </c>
+      <c r="O52" s="49"/>
+      <c r="P52" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q52" s="64">
+        <v>6</v>
+      </c>
+      <c r="R52" s="54" t="s">
+        <v>117</v>
+      </c>
+      <c r="S52" s="53" t="s">
+        <v>118</v>
+      </c>
+      <c r="T52" s="55" t="s">
+        <v>169</v>
+      </c>
+      <c r="U52" s="53" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="E53" s="4"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="H53" s="81">
+        <v>28</v>
+      </c>
+      <c r="I53" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="J53" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="K53" s="71" t="s">
+        <v>191</v>
+      </c>
+      <c r="L53" s="39" t="s">
+        <v>209</v>
+      </c>
+      <c r="M53" s="76" t="s">
+        <v>83</v>
+      </c>
+      <c r="N53" s="76" t="s">
+        <v>193</v>
+      </c>
+      <c r="O53" s="7"/>
+      <c r="P53" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q53" s="65">
+        <v>6</v>
+      </c>
+      <c r="R53" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="S53" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="T53" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="U53" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F54" s="66"/>
+      <c r="H54" s="67"/>
+      <c r="I54" s="66"/>
+      <c r="M54" s="73"/>
+      <c r="N54" s="73"/>
+      <c r="Q54" s="66"/>
+      <c r="R54" s="67"/>
+      <c r="S54" s="67"/>
     </row>
     <row r="55" spans="1:21" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F55" s="40"/>
@@ -6068,188 +6126,222 @@
       <c r="R55" s="41"/>
       <c r="S55" s="41"/>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>90</v>
-      </c>
+    <row r="56" spans="1:21" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N56" s="72"/>
+      <c r="O56" s="82"/>
+      <c r="Q56" s="40"/>
+      <c r="R56" s="41"/>
+      <c r="S56" s="41"/>
+    </row>
+    <row r="57" spans="1:21" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F57" s="40"/>
+      <c r="H57" s="41"/>
+      <c r="I57" s="40"/>
+      <c r="M57" s="72"/>
+      <c r="N57" s="72"/>
+      <c r="Q57" s="40"/>
+      <c r="R57" s="41"/>
+      <c r="S57" s="41"/>
+    </row>
+    <row r="58" spans="1:21" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F58" s="40"/>
+      <c r="H58" s="41"/>
+      <c r="I58" s="40"/>
+      <c r="M58" s="72"/>
+      <c r="N58" s="72"/>
+      <c r="Q58" s="40"/>
+      <c r="R58" s="41"/>
+      <c r="S58" s="41"/>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="M62"/>
+      <c r="N62"/>
+      <c r="Q62"/>
+      <c r="R62"/>
+      <c r="S62"/>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>65</v>
+        <v>100</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>66</v>
+        <v>101</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
         <v>106</v>
       </c>
     </row>
@@ -6277,7 +6369,7 @@
     <mergeCell ref="C1:C2"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I50">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I53">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -6290,19 +6382,19 @@
           <x14:formula1>
             <xm:f>DATOS!$D$1:$D$2</xm:f>
           </x14:formula1>
-          <xm:sqref>P3:P50 K3:K4 K8 K11 K14 K16 K20 K22:K23 K28:K33 K38:K43</xm:sqref>
+          <xm:sqref>K3:K4 K38:K43 K11 K16 K20 K22:K23 K25:K26 K28:K32 P3:P53</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$B$1:$B$7</xm:f>
           </x14:formula1>
-          <xm:sqref>L3:L50</xm:sqref>
+          <xm:sqref>L3:L53</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$A$1:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>A3:A50</xm:sqref>
+          <xm:sqref>A3:A53</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
